--- a/metrics/transfer_time/cleaned_data/Kafka_01._.xlsx
+++ b/metrics/transfer_time/cleaned_data/Kafka_01._.xlsx
@@ -2451,8 +2451,12 @@
       <c r="A144" s="2" t="n">
         <v>45186.76597222222</v>
       </c>
-      <c r="B144" t="inlineStr"/>
-      <c r="C144" t="inlineStr"/>
+      <c r="B144" t="n">
+        <v>12974532</v>
+      </c>
+      <c r="C144" t="n">
+        <v>17.46</v>
+      </c>
       <c r="D144" t="n">
         <v>2743868</v>
       </c>
